--- a/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
+++ b/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Esy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Esy\Neuer Ordner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6E938-4F8B-4F08-BE04-8AF846441F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66268A26-54AB-45C0-88DD-06B904261828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="Risiken" sheetId="7" r:id="rId7"/>
     <sheet name="Stakeholder - Kommunikation" sheetId="8" r:id="rId8"/>
     <sheet name="Arbeitstagebuch_Eismann" sheetId="9" r:id="rId9"/>
-    <sheet name="_Template" sheetId="10" r:id="rId10"/>
+    <sheet name="Arbeitstagebuch_Keles" sheetId="11" r:id="rId10"/>
+    <sheet name="_Template" sheetId="10" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PSP - WBS'!$A$3:$I$7</definedName>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="244">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1102,6 +1103,72 @@
   </si>
   <si>
     <t>Roboter Code neu formatiert / Fehlerbehebung (Button-Bouncing, Vor-,Zurückfahren)</t>
+  </si>
+  <si>
+    <t>Ansteuerung des IF Sensors / Steuerkonzept</t>
+  </si>
+  <si>
+    <t>Seitenregelung erste versuche</t>
+  </si>
+  <si>
+    <t>Testen begonnen</t>
+  </si>
+  <si>
+    <t>Arbeitstagebuch &lt;Keles&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carkits auf Vollständigkeit und richtige Verkablung überprüft, </t>
+  </si>
+  <si>
+    <t>Codes ausprobiert, Fahrzeug in eine Richtung fahren lassen(auch mittels PWM)</t>
+  </si>
+  <si>
+    <t>Versucht einen Button anzuschließen</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Code für Ultraschallsensor gesucht</t>
+  </si>
+  <si>
+    <t>Code versucht einzubauen, problemstellung mit COM</t>
+  </si>
+  <si>
+    <t>Auto auseinander gebaut und die Kabel erneut verbunden</t>
+  </si>
+  <si>
+    <t>Einen Infratrot Sensor Code im Internet herausgesucht und ausprobiert</t>
+  </si>
+  <si>
+    <t>Problemstellung: Code hat nicht funktioniert, Sensor mit Oszi gemessen und überprüft</t>
+  </si>
+  <si>
+    <t>Infrarot Sensor Pins neu verlötet</t>
+  </si>
+  <si>
+    <t>Print gebohrt, Arduino und Batteriegehäuse befestigt</t>
+  </si>
+  <si>
+    <t>Alle Kabel entfernt und mit neunen Kabeln verbunden</t>
+  </si>
+  <si>
+    <t>Problemstellung: Arduino-Kabel kreuzt sich mit den Motorreifen, neu gebohrt und geschraubt</t>
+  </si>
+  <si>
+    <t>Infrarot Sensor Code überarbeitet und Kippschalter eingelötet</t>
+  </si>
+  <si>
+    <t>Infrarot Sensor und Motor Code kombiniert und hochgeladen</t>
+  </si>
+  <si>
+    <t>Dokumentation, Sourcetree neu installiert aufgrund von Problemen</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Schriftliche Mitarbeitsüberprüfung</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1573,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1818,12 +1885,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1833,36 +1954,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1887,19 +1978,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2387,14 +2478,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2443,10 +2534,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2455,8 +2546,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2465,8 +2556,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2475,8 +2566,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2485,8 +2576,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2507,41 +2598,41 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -2575,16 +2666,16 @@
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108" t="s">
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
@@ -2592,9 +2683,9 @@
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="116"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="115" t="s">
@@ -2620,6 +2711,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2630,16 +2731,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2648,6 +2739,306 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863327A-8B42-466F-8B01-22A9A278BD5E}">
+  <dimension ref="A1:AMJ33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="35"/>
+    <col min="2" max="2" width="8.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="23" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>45243</v>
+      </c>
+      <c r="B4" s="141">
+        <v>1</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>45243</v>
+      </c>
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>45243</v>
+      </c>
+      <c r="B6" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="142">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>45257</v>
+      </c>
+      <c r="B8" s="41">
+        <v>1</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>45257</v>
+      </c>
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B10" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B11" s="41">
+        <v>1</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B14" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B15" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B17" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>45271</v>
+      </c>
+      <c r="B18" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B19" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B20" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="107"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="107"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="107"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="107"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="107"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="107"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="107"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="107"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="107"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="107"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="107"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
@@ -2713,29 +3104,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="130"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="130"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="130"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2947,7 +3338,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,11 +3349,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -2970,18 +3361,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3017,7 +3408,9 @@
       <c r="B8" s="39">
         <v>45243</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="39">
+        <v>45250</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -3249,14 +3642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3534,8 +3927,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,16 +3942,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3867,9 +4260,13 @@
       <c r="F17" s="56">
         <v>4</v>
       </c>
-      <c r="G17" s="58"/>
+      <c r="G17" s="58">
+        <v>45298</v>
+      </c>
       <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="I17" s="59" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
@@ -3909,7 +4306,9 @@
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="59"/>
+      <c r="I19" s="59" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
@@ -4211,19 +4610,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
@@ -4887,16 +5286,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5672,71 +6071,71 @@
       <c r="A21" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="99"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="99"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="99"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="99"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5773,8 +6172,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,11 +6185,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5804,13 +6203,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134">
+      <c r="A4" s="114">
         <v>45236</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="111">
         <v>3</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="110" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5818,7 +6217,7 @@
       <c r="A5" s="37">
         <v>45243</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="112">
         <v>0.5</v>
       </c>
       <c r="C5" s="106" t="s">
@@ -5829,7 +6228,7 @@
       <c r="A6" s="37">
         <v>45243</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="113">
         <v>2.5</v>
       </c>
       <c r="C6" s="105" t="s">
@@ -5840,7 +6239,7 @@
       <c r="A7" s="40">
         <v>45250</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="113">
         <v>1.5</v>
       </c>
       <c r="C7" s="105" t="s">
@@ -5851,7 +6250,7 @@
       <c r="A8" s="40">
         <v>45250</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="113" t="s">
         <v>219</v>
       </c>
       <c r="C8" s="105" t="s">
@@ -5859,14 +6258,26 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="138">
+        <v>45271</v>
+      </c>
+      <c r="B9" s="139">
+        <v>3</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B10" s="41">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>

--- a/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
+++ b/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Esy\Neuer Ordner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\001145\Documents\group-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66268A26-54AB-45C0-88DD-06B904261828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A11D0-EA43-4F7A-9F14-5B2D179F1EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="245">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1169,6 +1169,9 @@
   </si>
   <si>
     <t>Schriftliche Mitarbeitsüberprüfung</t>
+  </si>
+  <si>
+    <t>Fehler des Schulnetzwerks / Überarbeitung altes Codes / Implementierung der Infrarot-Sensoren</t>
   </si>
 </sst>
 </file>
@@ -1909,6 +1912,45 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1927,33 +1969,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1977,21 +1995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2478,14 +2481,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2546,8 +2549,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2556,8 +2559,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2566,8 +2569,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2576,8 +2579,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2598,49 +2601,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2653,14 +2656,14 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -2678,49 +2681,39 @@
       <c r="F26" s="121"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2731,6 +2724,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2742,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863327A-8B42-466F-8B01-22A9A278BD5E}">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2758,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -2776,7 +2779,7 @@
       <c r="A4" s="37">
         <v>45243</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="118">
         <v>1</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -2806,7 +2809,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="142">
+      <c r="A7" s="119">
         <v>45250</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -3104,29 +3107,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="135"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3337,7 +3340,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3349,11 +3352,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3361,18 +3364,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3642,14 +3645,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3942,16 +3945,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4610,19 +4613,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
@@ -5286,16 +5289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -6071,71 +6074,71 @@
       <c r="A21" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="99"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="99"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="99"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="99"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6172,8 +6175,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6185,11 +6188,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6258,13 +6261,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="138">
+      <c r="A9" s="115">
         <v>45271</v>
       </c>
-      <c r="B9" s="139">
+      <c r="B9" s="116">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="117" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6279,10 +6282,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>45299</v>
+      </c>
+      <c r="B11" s="41">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>

--- a/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
+++ b/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\001145\Documents\group-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190185\Documents\group-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A11D0-EA43-4F7A-9F14-5B2D179F1EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5979B-088E-4ECE-B0D6-A7804314A371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="253">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1172,6 +1172,30 @@
   </si>
   <si>
     <t>Fehler des Schulnetzwerks / Überarbeitung altes Codes / Implementierung der Infrarot-Sensoren</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Probleme mit dem Schulnetzwerk, erneute Installation von Sourcetree</t>
+  </si>
+  <si>
+    <t>Alten Code mit Infrarotsensoren überarbeitet</t>
+  </si>
+  <si>
+    <t>Seitenregelungs Test / Stabile Messwerte mit IR Sensoren / fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Stabile Messwerte</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Zwei weiter Sensoren hinzugefügt und getestet</t>
+  </si>
+  <si>
+    <t>Keles/Eismann</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1600,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1758,9 +1782,6 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1778,9 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1927,12 +1945,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1942,36 +1990,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1995,6 +2013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2481,14 +2502,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2537,10 +2558,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="121"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2549,8 +2570,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2559,8 +2580,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2569,8 +2590,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2579,8 +2600,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2601,49 +2622,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2656,64 +2677,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129" t="s">
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2724,16 +2755,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2746,7 +2767,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,11 +2779,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -2779,10 +2800,10 @@
       <c r="A4" s="37">
         <v>45243</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="116">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="107" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2793,7 +2814,7 @@
       <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="105" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2804,18 +2825,18 @@
       <c r="B6" s="41">
         <v>0.5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="105" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="119">
+      <c r="A7" s="117">
         <v>45250</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="141" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2826,7 +2847,7 @@
       <c r="B8" s="41">
         <v>1</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="105" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2837,7 +2858,7 @@
       <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="105" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2848,7 +2869,7 @@
       <c r="B10" s="41">
         <v>0.5</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="105" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2859,7 +2880,7 @@
       <c r="B11" s="41">
         <v>1</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="105" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2870,7 +2891,7 @@
       <c r="B12" s="41">
         <v>1</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="105" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2881,7 +2902,7 @@
       <c r="B13" s="41">
         <v>0.5</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="105" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2892,7 +2913,7 @@
       <c r="B14" s="41">
         <v>0.5</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="105" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2903,7 +2924,7 @@
       <c r="B15" s="41">
         <v>0.5</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="105" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2914,7 +2935,7 @@
       <c r="B16" s="41">
         <v>0.5</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="105" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2925,7 +2946,7 @@
       <c r="B17" s="41">
         <v>0.5</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="105" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2936,7 +2957,7 @@
       <c r="B18" s="41">
         <v>0.5</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="105" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2947,7 +2968,7 @@
       <c r="B19" s="41">
         <v>1.5</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="105" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2958,7 +2979,7 @@
       <c r="B20" s="41">
         <v>0.5</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="105" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2969,75 +2990,94 @@
       <c r="B21" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="105" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="107"/>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>44934</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="107"/>
+      <c r="A23" s="40">
+        <v>44934</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="107"/>
+      <c r="A24" s="40">
+        <v>45306</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="107"/>
+      <c r="C25" s="105"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="107"/>
+      <c r="C26" s="105"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="107"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="107"/>
+      <c r="C28" s="105"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="107"/>
+      <c r="C29" s="105"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="107"/>
+      <c r="C30" s="105"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="107"/>
+      <c r="C31" s="105"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="107"/>
+      <c r="C32" s="105"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
-      <c r="C33" s="108"/>
+      <c r="C33" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3051,32 +3091,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="103" customWidth="1"/>
-    <col min="3" max="1024" width="11.5703125" style="103"/>
+    <col min="1" max="1" width="13.28515625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="101" customWidth="1"/>
+    <col min="3" max="1024" width="11.5703125" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3107,29 +3147,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="133"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="133"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3340,8 +3380,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,11 +3392,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3364,18 +3404,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3422,7 +3462,9 @@
       <c r="B9" s="39">
         <v>45257</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="39">
+        <v>45306</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3645,14 +3687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3930,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,16 +3987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4084,8 +4126,12 @@
       <c r="D8" s="57"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="G8" s="58">
+        <v>45236</v>
+      </c>
+      <c r="H8" s="58">
+        <v>45236</v>
+      </c>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,7 +4167,9 @@
       <c r="B11" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D11" s="57">
         <v>1</v>
       </c>
@@ -4148,7 +4196,9 @@
       <c r="B12" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D12" s="57">
         <v>1</v>
       </c>
@@ -4175,7 +4225,9 @@
       <c r="B13" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D13" s="57">
         <v>1</v>
       </c>
@@ -4202,7 +4254,9 @@
       <c r="B14" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D14" s="57">
         <v>2</v>
       </c>
@@ -4253,7 +4307,9 @@
       <c r="B17" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D17" s="57">
         <v>2</v>
       </c>
@@ -4266,7 +4322,9 @@
       <c r="G17" s="58">
         <v>45298</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="58">
+        <v>45299</v>
+      </c>
       <c r="I17" s="59" t="s">
         <v>223</v>
       </c>
@@ -4278,7 +4336,9 @@
       <c r="B18" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D18" s="57">
         <v>3</v>
       </c>
@@ -4288,9 +4348,15 @@
       <c r="F18" s="56">
         <v>3</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="58">
+        <v>45299</v>
+      </c>
+      <c r="H18" s="58">
+        <v>45306</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
@@ -4299,7 +4365,9 @@
       <c r="B19" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D19" s="57">
         <v>3</v>
       </c>
@@ -4307,7 +4375,9 @@
       <c r="F19" s="56">
         <v>1</v>
       </c>
-      <c r="G19" s="58"/>
+      <c r="G19" s="58">
+        <v>45314</v>
+      </c>
       <c r="H19" s="56"/>
       <c r="I19" s="59" t="s">
         <v>224</v>
@@ -4320,8 +4390,10 @@
       <c r="B20" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62">
+      <c r="C20" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="57">
         <v>3</v>
       </c>
       <c r="E20" s="56"/>
@@ -4359,120 +4431,134 @@
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="63">
+      <c r="A23" s="62">
         <v>41</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="64">
+      <c r="C23" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="63">
         <v>2</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <v>1</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <v>1</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
+      <c r="G23" s="58">
+        <v>45314</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="62">
         <v>42</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="64">
+      <c r="C24" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="63">
         <v>4</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65">
+      <c r="E24" s="64"/>
+      <c r="F24" s="64">
         <v>1</v>
       </c>
       <c r="G24" s="58"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="63">
+      <c r="A25" s="62">
         <v>43</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="64">
+      <c r="C25" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="63">
         <v>3</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65">
+      <c r="E25" s="64"/>
+      <c r="F25" s="64">
         <v>3</v>
       </c>
       <c r="G25" s="58"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="63">
+      <c r="A26" s="62">
         <v>44</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="64">
+      <c r="C26" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="63">
         <v>2</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65">
+      <c r="E26" s="64"/>
+      <c r="F26" s="64">
         <v>2</v>
       </c>
       <c r="G26" s="58"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="63">
+      <c r="A27" s="62">
         <v>45</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="64">
+      <c r="C27" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="63">
         <v>3</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65">
+      <c r="E27" s="64"/>
+      <c r="F27" s="64">
         <v>3</v>
       </c>
       <c r="G27" s="58"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="A28" s="62">
         <v>46</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="68">
+      <c r="C28" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="63">
         <v>3</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65">
+      <c r="E28" s="64"/>
+      <c r="F28" s="64">
         <v>3</v>
       </c>
       <c r="G28" s="58"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
@@ -4481,8 +4567,10 @@
       <c r="B29" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62">
+      <c r="C29" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="57">
         <v>2</v>
       </c>
       <c r="E29" s="56"/>
@@ -4500,8 +4588,10 @@
       <c r="B30" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62">
+      <c r="C30" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="61">
         <v>4</v>
       </c>
       <c r="E30" s="56"/>
@@ -4513,48 +4603,48 @@
       <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="66"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="49">
@@ -4569,10 +4659,10 @@
         <f>SUM(F10:F34)</f>
         <v>32</v>
       </c>
-      <c r="I35" s="72"/>
+      <c r="I35" s="70"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="72"/>
+      <c r="I36" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I7" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
@@ -4580,8 +4670,8 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4601,614 +4691,614 @@
     <col min="1" max="1" width="5.85546875" style="49" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="71" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="71" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" style="5" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
     <col min="12" max="1024" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="72" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="74">
         <f t="shared" ref="A4:A33" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>45170</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="77">
         <v>45236</v>
       </c>
       <c r="J4" s="38"/>
-      <c r="K4" s="80"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="79">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <v>45170</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="82">
         <v>45236</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="85"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="79">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <v>45170</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="84">
+      <c r="I6" s="82">
         <v>45236</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="85"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="83"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="83"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="79">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="83"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="79">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="83"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+      <c r="A15" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="83"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+      <c r="A16" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="83"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="A17" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="83"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="79">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+      <c r="A19" s="79">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="83"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+      <c r="A20" s="79">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="83"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+      <c r="A21" s="79">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="83"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+      <c r="A22" s="79">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="83"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="79">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="83"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="79">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="83"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="A25" s="79">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="83"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+      <c r="A26" s="79">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="83"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="79">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="83"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+      <c r="A28" s="79">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="83"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+      <c r="A29" s="79">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="83"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="81">
+      <c r="A30" s="79">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="83"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+      <c r="A31" s="79">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="83"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="81">
+      <c r="A32" s="79">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="83"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
+      <c r="A33" s="85">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="88"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
-      <c r="C34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="92"/>
+      <c r="C34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="90"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="49"/>
-      <c r="C35" s="92"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="92"/>
+      <c r="C35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="90"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
@@ -5249,7 +5339,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="95"/>
+      <c r="E45" s="93"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="23"/>
@@ -5289,16 +5379,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5843,7 +5933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5858,287 +5948,287 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="98" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="99" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="N7" s="97" t="s">
+      <c r="N7" s="95" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="99" t="s">
+      <c r="L8" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="97" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="K9" s="99" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="K9" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="99" t="s">
+      <c r="N9" s="97" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="K10" s="99" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="K10" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="99" t="s">
+      <c r="L10" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="99" t="s">
+      <c r="N10" s="97" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="K11" s="99" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="K11" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="L11" s="99" t="s">
+      <c r="L11" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="99" t="s">
+      <c r="M11" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="N11" s="99" t="s">
+      <c r="N11" s="97" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="K12" s="99" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="K12" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="L12" s="99" t="s">
+      <c r="L12" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="99" t="s">
+      <c r="N12" s="97" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6175,8 +6265,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6188,11 +6278,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6206,13 +6296,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114">
+      <c r="A4" s="112">
         <v>45236</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="109">
         <v>3</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6220,10 +6310,10 @@
       <c r="A5" s="37">
         <v>45243</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="110">
         <v>0.5</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="104" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6231,10 +6321,10 @@
       <c r="A6" s="37">
         <v>45243</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="111">
         <v>2.5</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="103" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6242,10 +6332,10 @@
       <c r="A7" s="40">
         <v>45250</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="111">
         <v>1.5</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="103" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6253,21 +6343,21 @@
       <c r="A8" s="40">
         <v>45250</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="115">
+      <c r="A9" s="113">
         <v>45271</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="115" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6293,10 +6383,16 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>45306</v>
+      </c>
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>

--- a/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
+++ b/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190185\Documents\group-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5979B-088E-4ECE-B0D6-A7804314A371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F354F55-4967-4FC3-9056-E908312B99C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="256">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1183,9 +1183,6 @@
     <t>Alten Code mit Infrarotsensoren überarbeitet</t>
   </si>
   <si>
-    <t>Seitenregelungs Test / Stabile Messwerte mit IR Sensoren / fehlerbehebung</t>
-  </si>
-  <si>
     <t>Stabile Messwerte</t>
   </si>
   <si>
@@ -1196,6 +1193,18 @@
   </si>
   <si>
     <t>Keles/Eismann</t>
+  </si>
+  <si>
+    <t>Seitenregelungs Test / Stabile Messwerte mit IR Sensoren / fehlerbehebung bei problemen mit Ausgabe / Mittelregelung erste Tests und aufstellen iner funktionierenden Formel zum berechnen in CM</t>
+  </si>
+  <si>
+    <t>Präsentation+Code(nicht vom Auto) Bearbeitung in den ersten zwei Stunden</t>
+  </si>
+  <si>
+    <t>Probleme mit dem Arduino, Programm lädt nicht mehr hoch, Arduino gewechselt.</t>
+  </si>
+  <si>
+    <t>Seitenregelung Programmiert und in der Bahn getestet / Fehlerbehebung Kaputer Flash Speicher des Arduinos / Motor Neu Verkabelt / IR Mittelsensor Messwerte weiter ausgewertet</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1609,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1945,6 +1954,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2014,8 +2029,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2502,14 +2517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2558,10 +2573,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="124"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2570,8 +2585,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2580,8 +2595,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2590,8 +2605,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2600,8 +2615,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2622,49 +2637,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2677,61 +2692,61 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119" t="s">
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2766,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863327A-8B42-466F-8B01-22A9A278BD5E}">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,11 +2794,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -2836,7 +2851,7 @@
       <c r="B7" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="118" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3021,21 +3036,33 @@
         <v>45306</v>
       </c>
       <c r="B24" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="105" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="105"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="105"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>45313</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>45313</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -3147,29 +3174,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="133"/>
+      <c r="C5" s="135"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3380,8 +3407,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,11 +3419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3404,18 +3431,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3687,14 +3714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3972,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,16 +4014,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4168,7 +4195,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="57">
         <v>1</v>
@@ -4197,7 +4224,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="57">
         <v>1</v>
@@ -4226,7 +4253,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="57">
         <v>1</v>
@@ -4255,7 +4282,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="57">
         <v>2</v>
@@ -4308,7 +4335,7 @@
         <v>211</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="57">
         <v>2</v>
@@ -4337,7 +4364,7 @@
         <v>212</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="57">
         <v>3</v>
@@ -4355,7 +4382,7 @@
         <v>45306</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4366,7 +4393,7 @@
         <v>107</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="57">
         <v>3</v>
@@ -4391,7 +4418,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="57">
         <v>3</v>
@@ -4438,7 +4465,7 @@
         <v>110</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="63">
         <v>2</v>
@@ -4463,7 +4490,7 @@
         <v>111</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" s="63">
         <v>4</v>
@@ -4484,7 +4511,7 @@
         <v>112</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="63">
         <v>3</v>
@@ -4505,7 +4532,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="63">
         <v>2</v>
@@ -4526,7 +4553,7 @@
         <v>114</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="63">
         <v>3</v>
@@ -4547,7 +4574,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="63">
         <v>3</v>
@@ -4568,7 +4595,7 @@
         <v>116</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="57">
         <v>2</v>
@@ -4589,7 +4616,7 @@
         <v>117</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" s="61">
         <v>4</v>
@@ -4703,19 +4730,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5379,16 +5406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5919,7 +5946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6164,71 +6191,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6265,8 +6292,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,11 +6305,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6383,7 +6410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>45306</v>
       </c>
@@ -6391,13 +6418,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="143">
+        <v>45313</v>
+      </c>
+      <c r="B13" s="41">
+        <v>3</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>

--- a/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
+++ b/Kopie von Projekt-Steuerung_Autonom-Fahrendes-Auto_Vorgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190185\Documents\group-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190185\Documents\group-06\Neu2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F354F55-4967-4FC3-9056-E908312B99C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD82CF-AAF0-4B83-B6B7-1771B7CCDFA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -1960,6 +1960,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1978,33 +2005,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2028,9 +2031,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2517,14 +2517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2573,10 +2573,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2585,8 +2585,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2595,8 +2595,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2605,8 +2605,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2615,8 +2615,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2637,49 +2637,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2692,74 +2692,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126" t="s">
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2770,6 +2760,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863327A-8B42-466F-8B01-22A9A278BD5E}">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,11 +2794,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -3065,7 +3065,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="40">
+        <v>45334</v>
+      </c>
       <c r="B27" s="41"/>
       <c r="C27" s="105"/>
     </row>
@@ -3174,29 +3176,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="136"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3419,11 +3421,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3431,18 +3433,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3714,14 +3716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4014,16 +4016,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4730,19 +4732,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5406,16 +5408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -6191,71 +6193,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6292,7 +6294,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6305,11 +6307,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6422,7 +6424,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="143">
+      <c r="A13" s="120">
         <v>45313</v>
       </c>
       <c r="B13" s="41">
